--- a/static/paper/APD07_paper.xlsx
+++ b/static/paper/APD07_paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ED19E4-CF79-4FFF-928A-F77886854FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F09F7CC-7318-4C56-9EAF-E031D84D696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Prior year control testing documentation rolled forward for reference purposes.</t>
   </si>
@@ -140,12 +140,28 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Data 변경</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행일자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>승인여부</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사전승인여부</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 요청서 번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>요청자ID</t>
@@ -165,18 +181,6 @@
   </si>
   <si>
     <t>승인일자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근권한ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한부여일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 요청서 번호</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -291,17 +295,17 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="바탕"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -553,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -574,6 +578,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -622,10 +630,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -647,7 +651,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -992,10 +1000,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O31"/>
+  <dimension ref="B1:P31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1003,16 +1011,17 @@
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
     <col min="3" max="4" width="15.5703125" style="2" customWidth="1"/>
-    <col min="5" max="12" width="20.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2"/>
-    <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="13" width="20.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="9.140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1027,10 +1036,11 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="2:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="23"/>
+      <c r="O1" s="24"/>
+    </row>
+    <row r="2" spans="2:16" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -1045,74 +1055,79 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="2:16" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="I4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="J4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="K4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6" t="str">
-        <f>IF(J5="", "X", "O")</f>
-        <v>X</v>
-      </c>
-      <c r="L5" s="6" t="e">
-        <f>IF(J5-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="str">
+        <f>IF(K5="", "X", "O")</f>
+        <v>X</v>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f>IF(K5-E5&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1124,19 +1139,20 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6" t="str">
-        <f>IF(J6="", "X", "O")</f>
-        <v>X</v>
-      </c>
-      <c r="L6" s="6" t="e">
-        <f>IF(J6-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="str">
+        <f>IF(K6="", "X", "O")</f>
+        <v>X</v>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f>IF(K6-E6&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -1148,18 +1164,19 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6" t="str">
-        <f t="shared" ref="K7:K29" si="0">IF(J7="", "X", "O")</f>
-        <v>X</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f>IF(J7-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="str">
+        <f t="shared" ref="L7:L29" si="0">IF(K7="", "X", "O")</f>
+        <v>X</v>
+      </c>
+      <c r="M7" s="6" t="str">
+        <f>IF(K7-E7&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -1171,18 +1188,19 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L8" s="6" t="e">
-        <f>IF(J8-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f>IF(K8-E8&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1194,19 +1212,20 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L9" s="6" t="e">
-        <f>IF(J9-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f>IF(K9-E9&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1218,18 +1237,19 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L10" s="6" t="e">
-        <f>IF(J10-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f>IF(K10-E10&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1241,18 +1261,19 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L11" s="6" t="e">
-        <f>IF(J11-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M11" s="6" t="str">
+        <f>IF(K11-E11&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1264,18 +1285,19 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L12" s="6" t="e">
-        <f>IF(J12-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M12" s="6" t="str">
+        <f>IF(K12-E12&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1287,18 +1309,19 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L13" s="6" t="e">
-        <f>IF(J13-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M13" s="6" t="str">
+        <f>IF(K13-E13&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -1310,18 +1333,19 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L14" s="6" t="e">
-        <f>IF(J14-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M14" s="6" t="str">
+        <f>IF(K14-E14&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -1333,18 +1357,19 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L15" s="6" t="e">
-        <f>IF(J15-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M15" s="6" t="str">
+        <f>IF(K15-E15&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -1356,19 +1381,20 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L16" s="6" t="e">
-        <f>IF(J16-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M16" s="6" t="str">
+        <f>IF(K16-E16&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -1380,18 +1406,19 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L17" s="6" t="e">
-        <f>IF(J17-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M17" s="6" t="str">
+        <f>IF(K17-E17&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -1403,18 +1430,19 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L18" s="6" t="e">
-        <f>IF(J18-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M18" s="6" t="str">
+        <f>IF(K18-E18&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -1426,18 +1454,19 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L19" s="6" t="e">
-        <f>IF(J19-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M19" s="6" t="str">
+        <f>IF(K19-E19&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -1449,18 +1478,19 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L20" s="6" t="e">
-        <f>IF(J20-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M20" s="6" t="str">
+        <f>IF(K20-E20&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -1472,18 +1502,19 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L21" s="6" t="e">
-        <f>IF(J21-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M21" s="6" t="str">
+        <f>IF(K21-E21&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -1495,18 +1526,19 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L22" s="6" t="e">
-        <f>IF(J22-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M22" s="6" t="str">
+        <f>IF(K22-E22&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -1518,18 +1550,19 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L23" s="6" t="e">
-        <f>IF(J23-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M23" s="6" t="str">
+        <f>IF(K23-E23&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -1541,18 +1574,19 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L24" s="6" t="e">
-        <f>IF(J24-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M24" s="6" t="str">
+        <f>IF(K24-E24&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -1564,18 +1598,19 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L25" s="6" t="e">
-        <f>IF(J25-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M25" s="6" t="str">
+        <f>IF(K25-E25&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -1587,18 +1622,19 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L26" s="6" t="e">
-        <f>IF(J26-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M26" s="6" t="str">
+        <f>IF(K26-E26&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -1610,18 +1646,19 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L27" s="6" t="e">
-        <f>IF(J27-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M27" s="6" t="str">
+        <f>IF(K27-E27&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -1633,59 +1670,61 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L28" s="6" t="e">
-        <f>IF(J28-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M28" s="6" t="str">
+        <f>IF(K28-E28&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
         <v>25</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="L29" s="10" t="e">
-        <f>IF(J29-#REF!&lt;=0, "O", "X")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="M29" s="11" t="str">
+        <f>IF(K29-E29&lt;=0, "O", "X")</f>
+        <v>O</v>
+      </c>
       <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:15" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B3:O3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
